--- a/DB.xlsx
+++ b/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8880" uniqueCount="3164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8858" uniqueCount="3164">
   <si>
     <t>Groups_om</t>
   </si>
@@ -8308,6 +8308,12 @@
     <t>(694ПС)</t>
   </si>
   <si>
+    <t>ДЭС4235 - 30КВт-1шт</t>
+  </si>
+  <si>
+    <t>ДЭС АД 30 Т 400-2шт</t>
+  </si>
+  <si>
     <t>МАН НКА -427</t>
   </si>
   <si>
@@ -8872,9 +8878,6 @@
     <t>Полуприцеп 3806</t>
   </si>
   <si>
-    <t>ДЭС4235 - 30КВт-1шт</t>
-  </si>
-  <si>
     <t>Полуприцеп 3805(094)</t>
   </si>
   <si>
@@ -8911,9 +8914,6 @@
     <t>(ПС358)</t>
   </si>
   <si>
-    <t>ДЭС АД 30 Т 400-2шт</t>
-  </si>
-  <si>
     <t>В 315АМ 86</t>
   </si>
   <si>
@@ -9040,6 +9040,12 @@
     <t>АУ6241 86</t>
   </si>
   <si>
+    <t>000004235</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>Н 397 КС  86</t>
   </si>
   <si>
@@ -9421,9 +9427,6 @@
     <t>3806</t>
   </si>
   <si>
-    <t>000004235</t>
-  </si>
-  <si>
     <t>3805</t>
   </si>
   <si>
@@ -9458,9 +9461,6 @@
   </si>
   <si>
     <t>358</t>
-  </si>
-  <si>
-    <t>400</t>
   </si>
   <si>
     <t>Ю/Приобское м/р</t>
@@ -9868,7 +9868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L810"/>
+  <dimension ref="A1:L808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21053,16 +21053,16 @@
         <v>2654</v>
       </c>
       <c r="I296" t="s">
-        <v>89</v>
+        <v>2699</v>
       </c>
       <c r="J296" t="s">
-        <v>89</v>
+        <v>2764</v>
       </c>
       <c r="K296" t="s">
-        <v>89</v>
+        <v>3008</v>
       </c>
       <c r="L296" t="s">
-        <v>89</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -21433,16 +21433,16 @@
         <v>2652</v>
       </c>
       <c r="I306" t="s">
-        <v>89</v>
+        <v>2688</v>
       </c>
       <c r="J306" t="s">
-        <v>89</v>
+        <v>2765</v>
       </c>
       <c r="K306" t="s">
-        <v>89</v>
+        <v>3009</v>
       </c>
       <c r="L306" t="s">
-        <v>89</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -21892,7 +21892,7 @@
         <v>2701</v>
       </c>
       <c r="J318" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="K318" t="s">
         <v>1711</v>
@@ -23482,7 +23482,7 @@
         <v>2692</v>
       </c>
       <c r="J360" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="K360" t="s">
         <v>1749</v>
@@ -23710,7 +23710,7 @@
         <v>2702</v>
       </c>
       <c r="J366" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="K366" t="s">
         <v>1755</v>
@@ -23862,7 +23862,7 @@
         <v>2699</v>
       </c>
       <c r="J370" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="K370" t="s">
         <v>1759</v>
@@ -23938,7 +23938,7 @@
         <v>2699</v>
       </c>
       <c r="J372" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="K372" t="s">
         <v>1761</v>
@@ -23976,7 +23976,7 @@
         <v>2703</v>
       </c>
       <c r="J373" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="K373" t="s">
         <v>1762</v>
@@ -24128,7 +24128,7 @@
         <v>2688</v>
       </c>
       <c r="J377" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="K377" t="s">
         <v>1766</v>
@@ -24166,7 +24166,7 @@
         <v>2695</v>
       </c>
       <c r="J378" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="K378" t="s">
         <v>1767</v>
@@ -24204,7 +24204,7 @@
         <v>2695</v>
       </c>
       <c r="J379" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="K379" t="s">
         <v>1768</v>
@@ -24242,7 +24242,7 @@
         <v>2704</v>
       </c>
       <c r="J380" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="K380" t="s">
         <v>1769</v>
@@ -24470,7 +24470,7 @@
         <v>2698</v>
       </c>
       <c r="J386" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="K386" t="s">
         <v>1775</v>
@@ -24622,7 +24622,7 @@
         <v>2698</v>
       </c>
       <c r="J390" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="K390" t="s">
         <v>1779</v>
@@ -24736,7 +24736,7 @@
         <v>2705</v>
       </c>
       <c r="J393" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="K393" t="s">
         <v>1782</v>
@@ -24812,7 +24812,7 @@
         <v>2684</v>
       </c>
       <c r="J395" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="K395" t="s">
         <v>1784</v>
@@ -24888,7 +24888,7 @@
         <v>2699</v>
       </c>
       <c r="J397" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="K397" t="s">
         <v>1786</v>
@@ -24926,7 +24926,7 @@
         <v>2706</v>
       </c>
       <c r="J398" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="K398" t="s">
         <v>1787</v>
@@ -25078,10 +25078,10 @@
         <v>2691</v>
       </c>
       <c r="J402" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="K402" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="L402" t="s">
         <v>2678</v>
@@ -27498,7 +27498,7 @@
         <v>2691</v>
       </c>
       <c r="J466" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="K466" t="s">
         <v>1851</v>
@@ -29582,7 +29582,7 @@
         <v>2685</v>
       </c>
       <c r="J521" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="K521" t="s">
         <v>1905</v>
@@ -32578,7 +32578,7 @@
         <v>2683</v>
       </c>
       <c r="J600" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="K600" t="s">
         <v>1970</v>
@@ -32654,7 +32654,7 @@
         <v>2688</v>
       </c>
       <c r="J602" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="K602" t="s">
         <v>1972</v>
@@ -32730,7 +32730,7 @@
         <v>2699</v>
       </c>
       <c r="J604" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="K604" t="s">
         <v>1974</v>
@@ -32768,7 +32768,7 @@
         <v>2697</v>
       </c>
       <c r="J605" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="K605" t="s">
         <v>1975</v>
@@ -32806,7 +32806,7 @@
         <v>2700</v>
       </c>
       <c r="J606" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="K606" t="s">
         <v>1976</v>
@@ -32844,7 +32844,7 @@
         <v>2699</v>
       </c>
       <c r="J607" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="K607" t="s">
         <v>1977</v>
@@ -32882,7 +32882,7 @@
         <v>2698</v>
       </c>
       <c r="J608" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="K608" t="s">
         <v>1978</v>
@@ -32920,7 +32920,7 @@
         <v>2695</v>
       </c>
       <c r="J609" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="K609" t="s">
         <v>1979</v>
@@ -32996,7 +32996,7 @@
         <v>2686</v>
       </c>
       <c r="J611" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="K611" t="s">
         <v>1981</v>
@@ -33072,7 +33072,7 @@
         <v>2688</v>
       </c>
       <c r="J613" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="K613" t="s">
         <v>1983</v>
@@ -33110,7 +33110,7 @@
         <v>2684</v>
       </c>
       <c r="J614" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="K614" t="s">
         <v>1984</v>
@@ -33186,7 +33186,7 @@
         <v>2683</v>
       </c>
       <c r="J616" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="K616" t="s">
         <v>1986</v>
@@ -33224,7 +33224,7 @@
         <v>2685</v>
       </c>
       <c r="J617" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="K617" t="s">
         <v>1987</v>
@@ -33300,7 +33300,7 @@
         <v>2688</v>
       </c>
       <c r="J619" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="K619" t="s">
         <v>1989</v>
@@ -33338,7 +33338,7 @@
         <v>2707</v>
       </c>
       <c r="J620" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="K620" t="s">
         <v>1990</v>
@@ -33376,7 +33376,7 @@
         <v>2692</v>
       </c>
       <c r="J621" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="K621" t="s">
         <v>1991</v>
@@ -33414,7 +33414,7 @@
         <v>2699</v>
       </c>
       <c r="J622" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="K622" t="s">
         <v>1992</v>
@@ -33452,7 +33452,7 @@
         <v>2695</v>
       </c>
       <c r="J623" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="K623" t="s">
         <v>1993</v>
@@ -33528,7 +33528,7 @@
         <v>2688</v>
       </c>
       <c r="J625" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="K625" t="s">
         <v>1995</v>
@@ -33566,7 +33566,7 @@
         <v>2708</v>
       </c>
       <c r="J626" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="K626" t="s">
         <v>1996</v>
@@ -33604,7 +33604,7 @@
         <v>2692</v>
       </c>
       <c r="J627" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="K627" t="s">
         <v>1997</v>
@@ -33718,7 +33718,7 @@
         <v>2695</v>
       </c>
       <c r="J630" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="K630" t="s">
         <v>2000</v>
@@ -33756,7 +33756,7 @@
         <v>2699</v>
       </c>
       <c r="J631" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="K631" t="s">
         <v>2001</v>
@@ -33902,10 +33902,10 @@
         <v>2699</v>
       </c>
       <c r="J635" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="K635" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="L635" t="s">
         <v>2654</v>
@@ -33940,7 +33940,7 @@
         <v>2709</v>
       </c>
       <c r="J636" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="K636" t="s">
         <v>2005</v>
@@ -33978,7 +33978,7 @@
         <v>2710</v>
       </c>
       <c r="J637" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="K637" t="s">
         <v>2006</v>
@@ -34016,7 +34016,7 @@
         <v>2711</v>
       </c>
       <c r="J638" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="K638" t="s">
         <v>2007</v>
@@ -34054,7 +34054,7 @@
         <v>2710</v>
       </c>
       <c r="J639" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="K639" t="s">
         <v>2006</v>
@@ -34168,7 +34168,7 @@
         <v>2707</v>
       </c>
       <c r="J642" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="K642" t="s">
         <v>2010</v>
@@ -34206,7 +34206,7 @@
         <v>2699</v>
       </c>
       <c r="J643" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="K643" t="s">
         <v>2011</v>
@@ -34282,7 +34282,7 @@
         <v>2695</v>
       </c>
       <c r="J645" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="K645" t="s">
         <v>2013</v>
@@ -34320,7 +34320,7 @@
         <v>2712</v>
       </c>
       <c r="J646" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="K646" t="s">
         <v>2014</v>
@@ -34358,7 +34358,7 @@
         <v>2699</v>
       </c>
       <c r="J647" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="K647" t="s">
         <v>2015</v>
@@ -34548,7 +34548,7 @@
         <v>2713</v>
       </c>
       <c r="J652" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="K652" t="s">
         <v>2020</v>
@@ -34586,7 +34586,7 @@
         <v>2688</v>
       </c>
       <c r="J653" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="K653" t="s">
         <v>2021</v>
@@ -34624,7 +34624,7 @@
         <v>2686</v>
       </c>
       <c r="J654" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="K654" t="s">
         <v>2022</v>
@@ -34662,7 +34662,7 @@
         <v>2685</v>
       </c>
       <c r="J655" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="K655" t="s">
         <v>2023</v>
@@ -34700,7 +34700,7 @@
         <v>2692</v>
       </c>
       <c r="J656" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="K656" t="s">
         <v>2024</v>
@@ -34738,7 +34738,7 @@
         <v>2699</v>
       </c>
       <c r="J657" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="K657" t="s">
         <v>2025</v>
@@ -34776,7 +34776,7 @@
         <v>2697</v>
       </c>
       <c r="J658" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="K658" t="s">
         <v>2026</v>
@@ -34814,7 +34814,7 @@
         <v>2698</v>
       </c>
       <c r="J659" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="K659" t="s">
         <v>2027</v>
@@ -34928,7 +34928,7 @@
         <v>2695</v>
       </c>
       <c r="J662" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="K662" t="s">
         <v>2030</v>
@@ -34966,7 +34966,7 @@
         <v>2714</v>
       </c>
       <c r="J663" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="K663" t="s">
         <v>2031</v>
@@ -35042,7 +35042,7 @@
         <v>2685</v>
       </c>
       <c r="J665" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="K665" t="s">
         <v>2033</v>
@@ -35232,7 +35232,7 @@
         <v>2688</v>
       </c>
       <c r="J670" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="K670" t="s">
         <v>2038</v>
@@ -35270,7 +35270,7 @@
         <v>2708</v>
       </c>
       <c r="J671" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="K671" t="s">
         <v>2039</v>
@@ -35308,10 +35308,10 @@
         <v>2691</v>
       </c>
       <c r="J672" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="K672" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="L672" t="s">
         <v>2678</v>
@@ -35346,10 +35346,10 @@
         <v>2691</v>
       </c>
       <c r="J673" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="K673" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="L673" t="s">
         <v>2678</v>
@@ -35384,10 +35384,10 @@
         <v>2691</v>
       </c>
       <c r="J674" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="K674" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="L674" t="s">
         <v>2678</v>
@@ -35422,10 +35422,10 @@
         <v>2697</v>
       </c>
       <c r="J675" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="K675" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="L675" t="s">
         <v>2664</v>
@@ -35460,10 +35460,10 @@
         <v>2697</v>
       </c>
       <c r="J676" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="K676" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="L676" t="s">
         <v>2664</v>
@@ -35498,10 +35498,10 @@
         <v>2698</v>
       </c>
       <c r="J677" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="K677" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="L677" t="s">
         <v>3157</v>
@@ -35536,10 +35536,10 @@
         <v>2689</v>
       </c>
       <c r="J678" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="K678" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="L678" t="s">
         <v>3152</v>
@@ -35574,10 +35574,10 @@
         <v>2689</v>
       </c>
       <c r="J679" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="K679" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="L679" t="s">
         <v>3152</v>
@@ -35612,10 +35612,10 @@
         <v>2689</v>
       </c>
       <c r="J680" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="K680" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="L680" t="s">
         <v>3152</v>
@@ -35650,10 +35650,10 @@
         <v>2689</v>
       </c>
       <c r="J681" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="K681" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="L681" t="s">
         <v>3152</v>
@@ -35688,10 +35688,10 @@
         <v>2689</v>
       </c>
       <c r="J682" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="K682" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="L682" t="s">
         <v>3152</v>
@@ -35726,10 +35726,10 @@
         <v>2690</v>
       </c>
       <c r="J683" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="K683" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="L683" t="s">
         <v>3153</v>
@@ -35764,10 +35764,10 @@
         <v>2683</v>
       </c>
       <c r="J684" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="K684" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="L684" t="s">
         <v>3149</v>
@@ -35802,10 +35802,10 @@
         <v>2683</v>
       </c>
       <c r="J685" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="K685" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="L685" t="s">
         <v>3149</v>
@@ -35840,10 +35840,10 @@
         <v>2683</v>
       </c>
       <c r="J686" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="K686" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="L686" t="s">
         <v>3149</v>
@@ -35878,10 +35878,10 @@
         <v>2683</v>
       </c>
       <c r="J687" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="K687" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="L687" t="s">
         <v>3149</v>
@@ -35916,10 +35916,10 @@
         <v>2683</v>
       </c>
       <c r="J688" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="K688" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="L688" t="s">
         <v>3149</v>
@@ -35954,10 +35954,10 @@
         <v>2694</v>
       </c>
       <c r="J689" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="K689" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="L689" t="s">
         <v>3155</v>
@@ -35992,10 +35992,10 @@
         <v>2694</v>
       </c>
       <c r="J690" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="K690" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="L690" t="s">
         <v>3155</v>
@@ -36030,10 +36030,10 @@
         <v>2694</v>
       </c>
       <c r="J691" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="K691" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="L691" t="s">
         <v>3155</v>
@@ -36068,10 +36068,10 @@
         <v>2694</v>
       </c>
       <c r="J692" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="K692" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="L692" t="s">
         <v>3155</v>
@@ -36106,10 +36106,10 @@
         <v>2694</v>
       </c>
       <c r="J693" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="K693" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="L693" t="s">
         <v>3155</v>
@@ -36144,10 +36144,10 @@
         <v>2695</v>
       </c>
       <c r="J694" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="K694" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="L694" t="s">
         <v>3156</v>
@@ -36182,10 +36182,10 @@
         <v>2695</v>
       </c>
       <c r="J695" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="K695" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="L695" t="s">
         <v>3156</v>
@@ -36220,10 +36220,10 @@
         <v>2695</v>
       </c>
       <c r="J696" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="K696" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="L696" t="s">
         <v>3156</v>
@@ -36258,10 +36258,10 @@
         <v>2695</v>
       </c>
       <c r="J697" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="K697" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="L697" t="s">
         <v>3156</v>
@@ -36296,10 +36296,10 @@
         <v>2695</v>
       </c>
       <c r="J698" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="K698" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="L698" t="s">
         <v>3156</v>
@@ -36334,10 +36334,10 @@
         <v>2695</v>
       </c>
       <c r="J699" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="K699" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="L699" t="s">
         <v>3156</v>
@@ -36372,10 +36372,10 @@
         <v>2695</v>
       </c>
       <c r="J700" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="K700" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="L700" t="s">
         <v>3156</v>
@@ -36410,10 +36410,10 @@
         <v>2696</v>
       </c>
       <c r="J701" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="K701" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="L701" t="s">
         <v>3155</v>
@@ -36448,10 +36448,10 @@
         <v>2696</v>
       </c>
       <c r="J702" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="K702" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="L702" t="s">
         <v>3155</v>
@@ -36486,10 +36486,10 @@
         <v>2696</v>
       </c>
       <c r="J703" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="K703" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="L703" t="s">
         <v>3155</v>
@@ -36524,10 +36524,10 @@
         <v>2696</v>
       </c>
       <c r="J704" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="K704" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="L704" t="s">
         <v>3155</v>
@@ -36562,10 +36562,10 @@
         <v>2696</v>
       </c>
       <c r="J705" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="K705" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="L705" t="s">
         <v>3155</v>
@@ -36600,10 +36600,10 @@
         <v>2696</v>
       </c>
       <c r="J706" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="K706" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="L706" t="s">
         <v>3155</v>
@@ -36638,10 +36638,10 @@
         <v>2697</v>
       </c>
       <c r="J707" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="K707" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="L707" t="s">
         <v>2664</v>
@@ -36676,10 +36676,10 @@
         <v>2697</v>
       </c>
       <c r="J708" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="K708" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="L708" t="s">
         <v>2664</v>
@@ -36714,10 +36714,10 @@
         <v>2697</v>
       </c>
       <c r="J709" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="K709" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="L709" t="s">
         <v>2664</v>
@@ -36752,10 +36752,10 @@
         <v>2697</v>
       </c>
       <c r="J710" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="K710" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="L710" t="s">
         <v>2664</v>
@@ -36790,10 +36790,10 @@
         <v>2697</v>
       </c>
       <c r="J711" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="K711" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="L711" t="s">
         <v>2664</v>
@@ -36828,10 +36828,10 @@
         <v>2697</v>
       </c>
       <c r="J712" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="K712" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="L712" t="s">
         <v>2664</v>
@@ -36866,10 +36866,10 @@
         <v>2697</v>
       </c>
       <c r="J713" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="K713" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="L713" t="s">
         <v>2664</v>
@@ -36904,10 +36904,10 @@
         <v>2698</v>
       </c>
       <c r="J714" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="K714" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="L714" t="s">
         <v>3157</v>
@@ -36942,10 +36942,10 @@
         <v>2698</v>
       </c>
       <c r="J715" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="K715" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="L715" t="s">
         <v>3157</v>
@@ -36980,10 +36980,10 @@
         <v>2698</v>
       </c>
       <c r="J716" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="K716" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="L716" t="s">
         <v>3157</v>
@@ -37018,10 +37018,10 @@
         <v>2698</v>
       </c>
       <c r="J717" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="K717" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="L717" t="s">
         <v>3157</v>
@@ -37056,10 +37056,10 @@
         <v>2698</v>
       </c>
       <c r="J718" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="K718" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="L718" t="s">
         <v>3157</v>
@@ -37094,10 +37094,10 @@
         <v>2698</v>
       </c>
       <c r="J719" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="K719" t="s">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="L719" t="s">
         <v>3157</v>
@@ -37132,10 +37132,10 @@
         <v>2698</v>
       </c>
       <c r="J720" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="K720" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="L720" t="s">
         <v>3157</v>
@@ -37170,10 +37170,10 @@
         <v>2698</v>
       </c>
       <c r="J721" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="K721" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="L721" t="s">
         <v>3157</v>
@@ -37208,10 +37208,10 @@
         <v>2699</v>
       </c>
       <c r="J722" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="K722" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="L722" t="s">
         <v>2654</v>
@@ -37246,10 +37246,10 @@
         <v>2699</v>
       </c>
       <c r="J723" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="K723" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="L723" t="s">
         <v>2654</v>
@@ -37284,10 +37284,10 @@
         <v>2699</v>
       </c>
       <c r="J724" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="K724" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="L724" t="s">
         <v>2654</v>
@@ -37322,10 +37322,10 @@
         <v>2699</v>
       </c>
       <c r="J725" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="K725" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="L725" t="s">
         <v>2654</v>
@@ -37360,10 +37360,10 @@
         <v>2699</v>
       </c>
       <c r="J726" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="K726" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
       <c r="L726" t="s">
         <v>2654</v>
@@ -37398,10 +37398,10 @@
         <v>2699</v>
       </c>
       <c r="J727" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="K727" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="L727" t="s">
         <v>2654</v>
@@ -37436,10 +37436,10 @@
         <v>2699</v>
       </c>
       <c r="J728" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="K728" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="L728" t="s">
         <v>2654</v>
@@ -37474,10 +37474,10 @@
         <v>2699</v>
       </c>
       <c r="J729" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="K729" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="L729" t="s">
         <v>2654</v>
@@ -37512,10 +37512,10 @@
         <v>2699</v>
       </c>
       <c r="J730" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="K730" t="s">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="L730" t="s">
         <v>2654</v>
@@ -37550,10 +37550,10 @@
         <v>2700</v>
       </c>
       <c r="J731" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="K731" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="L731" t="s">
         <v>3158</v>
@@ -37588,10 +37588,10 @@
         <v>2700</v>
       </c>
       <c r="J732" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="K732" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="L732" t="s">
         <v>3158</v>
@@ -37626,10 +37626,10 @@
         <v>2700</v>
       </c>
       <c r="J733" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="K733" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="L733" t="s">
         <v>3158</v>
@@ -37664,10 +37664,10 @@
         <v>2700</v>
       </c>
       <c r="J734" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="K734" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="L734" t="s">
         <v>3158</v>
@@ -37702,10 +37702,10 @@
         <v>2700</v>
       </c>
       <c r="J735" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="K735" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="L735" t="s">
         <v>3158</v>
@@ -37740,10 +37740,10 @@
         <v>2684</v>
       </c>
       <c r="J736" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="K736" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="L736" t="s">
         <v>89</v>
@@ -37778,10 +37778,10 @@
         <v>2684</v>
       </c>
       <c r="J737" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="K737" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="L737" t="s">
         <v>89</v>
@@ -37816,10 +37816,10 @@
         <v>2684</v>
       </c>
       <c r="J738" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="K738" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="L738" t="s">
         <v>89</v>
@@ -37854,10 +37854,10 @@
         <v>2684</v>
       </c>
       <c r="J739" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="K739" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="L739" t="s">
         <v>89</v>
@@ -37892,10 +37892,10 @@
         <v>2684</v>
       </c>
       <c r="J740" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="K740" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="L740" t="s">
         <v>89</v>
@@ -37930,10 +37930,10 @@
         <v>2684</v>
       </c>
       <c r="J741" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="K741" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="L741" t="s">
         <v>89</v>
@@ -37968,10 +37968,10 @@
         <v>2684</v>
       </c>
       <c r="J742" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="K742" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="L742" t="s">
         <v>89</v>
@@ -38006,10 +38006,10 @@
         <v>2684</v>
       </c>
       <c r="J743" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="K743" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="L743" t="s">
         <v>89</v>
@@ -38044,10 +38044,10 @@
         <v>2684</v>
       </c>
       <c r="J744" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="K744" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="L744" t="s">
         <v>89</v>
@@ -38082,10 +38082,10 @@
         <v>2685</v>
       </c>
       <c r="J745" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="K745" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="L745" t="s">
         <v>3150</v>
@@ -38120,10 +38120,10 @@
         <v>2685</v>
       </c>
       <c r="J746" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="K746" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="L746" t="s">
         <v>3150</v>
@@ -38158,10 +38158,10 @@
         <v>2685</v>
       </c>
       <c r="J747" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="K747" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="L747" t="s">
         <v>3150</v>
@@ -38196,10 +38196,10 @@
         <v>2685</v>
       </c>
       <c r="J748" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="K748" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="L748" t="s">
         <v>3150</v>
@@ -38234,10 +38234,10 @@
         <v>2685</v>
       </c>
       <c r="J749" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="K749" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="L749" t="s">
         <v>3150</v>
@@ -38272,10 +38272,10 @@
         <v>2686</v>
       </c>
       <c r="J750" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="K750" t="s">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="L750" t="s">
         <v>3149</v>
@@ -38310,10 +38310,10 @@
         <v>2686</v>
       </c>
       <c r="J751" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="K751" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
       <c r="L751" t="s">
         <v>3149</v>
@@ -38348,10 +38348,10 @@
         <v>2686</v>
       </c>
       <c r="J752" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="K752" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="L752" t="s">
         <v>3149</v>
@@ -38386,10 +38386,10 @@
         <v>2686</v>
       </c>
       <c r="J753" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="K753" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="L753" t="s">
         <v>3149</v>
@@ -38424,10 +38424,10 @@
         <v>2686</v>
       </c>
       <c r="J754" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="K754" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="L754" t="s">
         <v>3149</v>
@@ -38462,10 +38462,10 @@
         <v>2686</v>
       </c>
       <c r="J755" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="K755" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="L755" t="s">
         <v>3149</v>
@@ -38500,10 +38500,10 @@
         <v>2686</v>
       </c>
       <c r="J756" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="K756" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="L756" t="s">
         <v>3149</v>
@@ -38538,10 +38538,10 @@
         <v>2715</v>
       </c>
       <c r="J757" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="K757" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="L757" t="s">
         <v>89</v>
@@ -38576,10 +38576,10 @@
         <v>2715</v>
       </c>
       <c r="J758" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="K758" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="L758" t="s">
         <v>89</v>
@@ -38614,10 +38614,10 @@
         <v>2715</v>
       </c>
       <c r="J759" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="K759" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="L759" t="s">
         <v>89</v>
@@ -38652,10 +38652,10 @@
         <v>2715</v>
       </c>
       <c r="J760" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="K760" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="L760" t="s">
         <v>89</v>
@@ -38690,10 +38690,10 @@
         <v>2715</v>
       </c>
       <c r="J761" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="K761" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="L761" t="s">
         <v>89</v>
@@ -38728,10 +38728,10 @@
         <v>2688</v>
       </c>
       <c r="J762" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="K762" t="s">
-        <v>3100</v>
+        <v>3102</v>
       </c>
       <c r="L762" t="s">
         <v>3151</v>
@@ -38766,10 +38766,10 @@
         <v>2688</v>
       </c>
       <c r="J763" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="K763" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="L763" t="s">
         <v>3151</v>
@@ -38804,10 +38804,10 @@
         <v>2688</v>
       </c>
       <c r="J764" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="K764" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="L764" t="s">
         <v>3151</v>
@@ -38842,10 +38842,10 @@
         <v>2688</v>
       </c>
       <c r="J765" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="K765" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="L765" t="s">
         <v>3151</v>
@@ -38880,10 +38880,10 @@
         <v>2688</v>
       </c>
       <c r="J766" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="K766" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="L766" t="s">
         <v>3151</v>
@@ -38918,10 +38918,10 @@
         <v>2688</v>
       </c>
       <c r="J767" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="K767" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="L767" t="s">
         <v>3151</v>
@@ -38956,10 +38956,10 @@
         <v>2688</v>
       </c>
       <c r="J768" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="K768" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="L768" t="s">
         <v>3151</v>
@@ -38994,10 +38994,10 @@
         <v>2688</v>
       </c>
       <c r="J769" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="K769" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="L769" t="s">
         <v>3151</v>
@@ -39032,10 +39032,10 @@
         <v>2689</v>
       </c>
       <c r="J770" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="K770" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
       <c r="L770" t="s">
         <v>3152</v>
@@ -39070,10 +39070,10 @@
         <v>2690</v>
       </c>
       <c r="J771" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="K771" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="L771" t="s">
         <v>3153</v>
@@ -39108,10 +39108,10 @@
         <v>2690</v>
       </c>
       <c r="J772" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="K772" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="L772" t="s">
         <v>3153</v>
@@ -39146,10 +39146,10 @@
         <v>2690</v>
       </c>
       <c r="J773" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="K773" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="L773" t="s">
         <v>3153</v>
@@ -39184,10 +39184,10 @@
         <v>2690</v>
       </c>
       <c r="J774" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="K774" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="L774" t="s">
         <v>3153</v>
@@ -39222,10 +39222,10 @@
         <v>2690</v>
       </c>
       <c r="J775" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="K775" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="L775" t="s">
         <v>3153</v>
@@ -39260,10 +39260,10 @@
         <v>2690</v>
       </c>
       <c r="J776" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="K776" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="L776" t="s">
         <v>3153</v>
@@ -39298,10 +39298,10 @@
         <v>2690</v>
       </c>
       <c r="J777" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="K777" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="L777" t="s">
         <v>3153</v>
@@ -39336,10 +39336,10 @@
         <v>2692</v>
       </c>
       <c r="J778" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="K778" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="L778" t="s">
         <v>2659</v>
@@ -39374,10 +39374,10 @@
         <v>2692</v>
       </c>
       <c r="J779" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="K779" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="L779" t="s">
         <v>2659</v>
@@ -39412,10 +39412,10 @@
         <v>2692</v>
       </c>
       <c r="J780" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="K780" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="L780" t="s">
         <v>2659</v>
@@ -39450,10 +39450,10 @@
         <v>2692</v>
       </c>
       <c r="J781" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="K781" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="L781" t="s">
         <v>2659</v>
@@ -39488,10 +39488,10 @@
         <v>2692</v>
       </c>
       <c r="J782" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="K782" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="L782" t="s">
         <v>2659</v>
@@ -39526,10 +39526,10 @@
         <v>2692</v>
       </c>
       <c r="J783" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="K783" t="s">
-        <v>3121</v>
+        <v>3123</v>
       </c>
       <c r="L783" t="s">
         <v>2659</v>
@@ -39564,10 +39564,10 @@
         <v>2692</v>
       </c>
       <c r="J784" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="K784" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="L784" t="s">
         <v>2659</v>
@@ -39602,10 +39602,10 @@
         <v>2683</v>
       </c>
       <c r="J785" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="K785" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="L785" t="s">
         <v>3149</v>
@@ -39640,10 +39640,10 @@
         <v>2699</v>
       </c>
       <c r="J786" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="K786" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="L786" t="s">
         <v>2654</v>
@@ -39678,10 +39678,10 @@
         <v>2700</v>
       </c>
       <c r="J787" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="K787" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="L787" t="s">
         <v>3158</v>
@@ -39716,10 +39716,10 @@
         <v>2690</v>
       </c>
       <c r="J788" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="K788" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="L788" t="s">
         <v>3153</v>
@@ -39754,10 +39754,10 @@
         <v>2695</v>
       </c>
       <c r="J789" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="K789" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="L789" t="s">
         <v>3156</v>
@@ -39792,10 +39792,10 @@
         <v>2697</v>
       </c>
       <c r="J790" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="K790" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="L790" t="s">
         <v>2664</v>
@@ -39830,10 +39830,10 @@
         <v>2698</v>
       </c>
       <c r="J791" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="K791" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="L791" t="s">
         <v>3157</v>
@@ -39868,10 +39868,10 @@
         <v>2698</v>
       </c>
       <c r="J792" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="K792" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="L792" t="s">
         <v>3157</v>
@@ -39906,10 +39906,10 @@
         <v>2710</v>
       </c>
       <c r="J793" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="K793" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="L793" t="s">
         <v>2664</v>
@@ -39944,10 +39944,10 @@
         <v>2699</v>
       </c>
       <c r="J794" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="K794" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="L794" t="s">
         <v>2654</v>
@@ -39982,10 +39982,10 @@
         <v>2699</v>
       </c>
       <c r="J795" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="K795" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="L795" t="s">
         <v>2654</v>
@@ -40020,10 +40020,10 @@
         <v>2699</v>
       </c>
       <c r="J796" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="K796" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="L796" t="s">
         <v>2654</v>
@@ -40055,16 +40055,16 @@
         <v>89</v>
       </c>
       <c r="I797" t="s">
-        <v>2699</v>
+        <v>2685</v>
       </c>
       <c r="J797" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="K797" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="L797" t="s">
-        <v>2654</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="798" spans="1:12">
@@ -40093,16 +40093,16 @@
         <v>89</v>
       </c>
       <c r="I798" t="s">
-        <v>2685</v>
+        <v>2715</v>
       </c>
       <c r="J798" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="K798" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="L798" t="s">
-        <v>3150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="799" spans="1:12">
@@ -40134,10 +40134,10 @@
         <v>2715</v>
       </c>
       <c r="J799" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="K799" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="L799" t="s">
         <v>89</v>
@@ -40169,16 +40169,16 @@
         <v>89</v>
       </c>
       <c r="I800" t="s">
-        <v>2715</v>
+        <v>2688</v>
       </c>
       <c r="J800" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="K800" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="L800" t="s">
-        <v>89</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="801" spans="1:12">
@@ -40210,10 +40210,10 @@
         <v>2688</v>
       </c>
       <c r="J801" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="K801" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="L801" t="s">
         <v>3151</v>
@@ -40248,10 +40248,10 @@
         <v>2688</v>
       </c>
       <c r="J802" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="K802" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="L802" t="s">
         <v>3151</v>
@@ -40283,16 +40283,16 @@
         <v>89</v>
       </c>
       <c r="I803" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="J803" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="K803" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="L803" t="s">
-        <v>3151</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="804" spans="1:12">
@@ -40324,10 +40324,10 @@
         <v>2692</v>
       </c>
       <c r="J804" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="K804" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="L804" t="s">
         <v>2659</v>
@@ -40359,16 +40359,16 @@
         <v>89</v>
       </c>
       <c r="I805" t="s">
-        <v>2692</v>
+        <v>2683</v>
       </c>
       <c r="J805" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="K805" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="L805" t="s">
-        <v>2659</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="806" spans="1:12">
@@ -40397,16 +40397,16 @@
         <v>89</v>
       </c>
       <c r="I806" t="s">
-        <v>2683</v>
+        <v>2694</v>
       </c>
       <c r="J806" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="K806" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="L806" t="s">
-        <v>3149</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="807" spans="1:12">
@@ -40435,16 +40435,16 @@
         <v>89</v>
       </c>
       <c r="I807" t="s">
-        <v>2694</v>
+        <v>2685</v>
       </c>
       <c r="J807" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
       <c r="K807" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="L807" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="808" spans="1:12">
@@ -40473,92 +40473,16 @@
         <v>89</v>
       </c>
       <c r="I808" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="J808" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="K808" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="L808" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="809" spans="1:12">
-      <c r="A809" s="1">
-        <v>807</v>
-      </c>
-      <c r="B809" t="s">
-        <v>89</v>
-      </c>
-      <c r="C809" t="s">
-        <v>89</v>
-      </c>
-      <c r="D809" t="s">
-        <v>89</v>
-      </c>
-      <c r="E809" t="s">
-        <v>89</v>
-      </c>
-      <c r="F809" t="s">
-        <v>89</v>
-      </c>
-      <c r="G809" t="s">
-        <v>89</v>
-      </c>
-      <c r="H809" t="s">
-        <v>89</v>
-      </c>
-      <c r="I809" t="s">
-        <v>2686</v>
-      </c>
-      <c r="J809" t="s">
-        <v>2964</v>
-      </c>
-      <c r="K809" t="s">
-        <v>3147</v>
-      </c>
-      <c r="L809" t="s">
         <v>3149</v>
-      </c>
-    </row>
-    <row r="810" spans="1:12">
-      <c r="A810" s="1">
-        <v>808</v>
-      </c>
-      <c r="B810" t="s">
-        <v>89</v>
-      </c>
-      <c r="C810" t="s">
-        <v>89</v>
-      </c>
-      <c r="D810" t="s">
-        <v>89</v>
-      </c>
-      <c r="E810" t="s">
-        <v>89</v>
-      </c>
-      <c r="F810" t="s">
-        <v>89</v>
-      </c>
-      <c r="G810" t="s">
-        <v>89</v>
-      </c>
-      <c r="H810" t="s">
-        <v>89</v>
-      </c>
-      <c r="I810" t="s">
-        <v>2688</v>
-      </c>
-      <c r="J810" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K810" t="s">
-        <v>3148</v>
-      </c>
-      <c r="L810" t="s">
-        <v>3151</v>
       </c>
     </row>
   </sheetData>
